--- a/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
+++ b/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saxion-my.sharepoint.com/personal/495475_student_saxion_nl/Documents/Bureaublad/CMGT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Unity Projects\Advanced Tools\Assets\Important\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{38CB1C27-D68D-47C6-9F3B-5CE9B0773ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFF7B49-3D33-4787-B9E2-5B221F3EDC7C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD6482-D925-41AE-BC2E-E3F1BA38C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{9632AE8E-B98F-49FF-90ED-EE2AB8D66D72}"/>
   </bookViews>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,6 +113,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -427,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C973FE52-08B9-4FF5-822B-F6AA480DB505}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +512,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44653</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44654</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44655</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
+++ b/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Unity Projects\Advanced Tools\Assets\Important\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD6482-D925-41AE-BC2E-E3F1BA38C281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654A9AA-8D0A-4E36-A602-9678E6CF2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{9632AE8E-B98F-49FF-90ED-EE2AB8D66D72}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9632AE8E-B98F-49FF-90ED-EE2AB8D66D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Day</t>
   </si>
@@ -42,22 +42,7 @@
     <t>Time (hours)</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>0.6</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -101,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -114,6 +99,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -428,14 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C973FE52-08B9-4FF5-822B-F6AA480DB505}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -452,16 +439,16 @@
       <c r="A2" s="4">
         <v>44629</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44630</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,16 +463,16 @@
       <c r="A5" s="1">
         <v>44634</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+      <c r="B5" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44640</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="2">
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,23 +480,23 @@
         <v>44645</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44646</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="2">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44647</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
+      <c r="B9" s="2">
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +504,7 @@
         <v>44653</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,6 +521,39 @@
       </c>
       <c r="B12">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44667</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44668</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44669</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f xml:space="preserve"> SUM(B2:B15)</f>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
+++ b/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Unity Projects\Advanced Tools\Assets\Important\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654A9AA-8D0A-4E36-A602-9678E6CF2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1121B22-D18B-489A-BC76-A742EB7F2D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9632AE8E-B98F-49FF-90ED-EE2AB8D66D72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{9632AE8E-B98F-49FF-90ED-EE2AB8D66D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C973FE52-08B9-4FF5-822B-F6AA480DB505}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,63 +453,63 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <v>44632</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>44633</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44634</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44640</v>
+        <v>44634</v>
       </c>
       <c r="B6" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44645</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
+        <v>44640</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44646</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.2999999999999998</v>
+        <v>44644</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>44647</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44653</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -517,43 +517,51 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>44655</v>
+        <v>44654</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44667</v>
+        <v>44655</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44668</v>
+        <v>44660</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>44669</v>
+        <v>44661</v>
       </c>
       <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44662</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
-        <f xml:space="preserve"> SUM(B2:B15)</f>
-        <v>53</v>
+      <c r="B17">
+        <f xml:space="preserve"> SUM(B2:B16)</f>
+        <v>53.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
+++ b/Assets/Important/Timesheet/Timesheet - Advanced Tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Unity Projects\Advanced Tools\Assets\Important\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1121B22-D18B-489A-BC76-A742EB7F2D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC9DA7-0133-41F2-9C6C-BB8673810F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{9632AE8E-B98F-49FF-90ED-EE2AB8D66D72}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -43,6 +43,54 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Switched over to Visibility Culling TTT. Imported Unity Viking village URP and created a FPS noter.</t>
+  </si>
+  <si>
+    <t>Created different types of lighting and did some tests with the file sizes. Also did some tests with Occlusion Culling.</t>
+  </si>
+  <si>
+    <t>Switched version control to GitHub.</t>
+  </si>
+  <si>
+    <t>Added test scenes with realtime lighting. Also did research about realtime lighting in Unity.</t>
+  </si>
+  <si>
+    <t>Changed settings and did some tests with the realtime lighting scenes.</t>
+  </si>
+  <si>
+    <t>Organized Unity project and tweaked some settings.</t>
+  </si>
+  <si>
+    <t>Did tests with builds of all tests scenes (Gathered average FPS results).</t>
+  </si>
+  <si>
+    <t>Did reserach into different TTT's.</t>
+  </si>
+  <si>
+    <t>Worked on AI TTT.</t>
+  </si>
+  <si>
+    <t>Added timesheet and research document to the Unity project. Mostly worked on the research document.</t>
+  </si>
+  <si>
+    <t>Worked on research document.</t>
+  </si>
+  <si>
+    <t>Added triangle noter script. Exported research document to GitHub.</t>
+  </si>
+  <si>
+    <t>Worked on Wiki.</t>
+  </si>
+  <si>
+    <t>Worked on Wiki and did some tests.</t>
+  </si>
+  <si>
+    <t>Created tables and diagrams from test results. Did tests in editor.</t>
   </si>
 </sst>
 </file>
@@ -414,154 +462,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C973FE52-08B9-4FF5-822B-F6AA480DB505}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44629</v>
       </c>
       <c r="B2" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44630</v>
       </c>
       <c r="B3" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44632</v>
       </c>
       <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44633</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44634</v>
       </c>
       <c r="B6" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>44640</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>44644</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>44646</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>44647</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>44653</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="B12">
+        <v>3.2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>44654</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="B13">
+        <v>3.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>44655</v>
       </c>
-      <c r="B13">
+      <c r="B14">
+        <v>2.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44660</v>
+      </c>
+      <c r="B15">
+        <v>8.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44661</v>
+      </c>
+      <c r="B16">
+        <v>9.6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44662</v>
+      </c>
+      <c r="B17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>44660</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>44661</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>44662</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <f xml:space="preserve"> SUM(B2:B16)</f>
-        <v>53.5</v>
+      <c r="B18">
+        <f xml:space="preserve"> SUM(B2:B17)</f>
+        <v>52.350000000000009</v>
       </c>
     </row>
   </sheetData>
